--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/资产总计.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/资产总计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2061.48467</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6358.65704</v>
-      </c>
-      <c r="D2" t="n">
-        <v>480.50292</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.47781</v>
-      </c>
-      <c r="F2" t="n">
-        <v>85.17461</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6034.00092</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1259.01399</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1702.68168</v>
-      </c>
-      <c r="J2" t="n">
-        <v>498.72212</v>
-      </c>
-      <c r="K2" t="n">
-        <v>84014.94</v>
-      </c>
-      <c r="L2" t="n">
-        <v>462.84744</v>
-      </c>
-      <c r="M2" t="n">
-        <v>54.1472</v>
-      </c>
-      <c r="N2" t="n">
-        <v>89.99353000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2906.69248</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2057.48727</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>407.53596</v>
-      </c>
-      <c r="R2" t="n">
-        <v>219.57463</v>
-      </c>
-      <c r="S2" t="n">
-        <v>266.78079</v>
-      </c>
-      <c r="T2" t="n">
-        <v>400.1638</v>
-      </c>
-      <c r="U2" t="n">
-        <v>567.79251</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1937.53103</v>
-      </c>
-      <c r="W2" t="n">
-        <v>572.4319400000001</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3587.53431</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16588.55987</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3832.98611</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1871.51819</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>112.776</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3418.05259</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4041.55045</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2734.83149</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1375.47075</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1125.71854</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>611.87335</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2976.43724</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>514.992</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>692.27925</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1564.5254</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1608.12659</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>7970.32081</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>254.46483</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1931.31515</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6847.33767</v>
-      </c>
-      <c r="D3" t="n">
-        <v>504.52905</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.76345</v>
-      </c>
-      <c r="F3" t="n">
-        <v>80.31241</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6041.7844</v>
-      </c>
-      <c r="H3" t="n">
-        <v>968.45781</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1858.45701</v>
-      </c>
-      <c r="J3" t="n">
-        <v>520.51066</v>
-      </c>
-      <c r="K3" t="n">
-        <v>87901.53999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>499.48562</v>
-      </c>
-      <c r="M3" t="n">
-        <v>52.46389</v>
-      </c>
-      <c r="N3" t="n">
-        <v>84.36359</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2878.29614</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2230.79133</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>401.82636</v>
-      </c>
-      <c r="R3" t="n">
-        <v>202.59107</v>
-      </c>
-      <c r="S3" t="n">
-        <v>274.9375</v>
-      </c>
-      <c r="T3" t="n">
-        <v>396.77292</v>
-      </c>
-      <c r="U3" t="n">
-        <v>550.28499</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2425.76486</v>
-      </c>
-      <c r="W3" t="n">
-        <v>587.40124</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3980.49163</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>18536.44568</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3921.27064</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1915.96571</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>108.80181</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3527.09778</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>4106.50728</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2523.40165</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1496.36551</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1182.98153</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>643.40228</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2814.15939</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>539.2467799999999</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>678.93579</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1385.22914</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1660.21599</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8602.295899999999</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>257.97833</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1990.76707</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7377.28467</v>
-      </c>
-      <c r="D4" t="n">
-        <v>486.86403</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.81921</v>
-      </c>
-      <c r="F4" t="n">
-        <v>74.95323999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6117.88649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>903.08695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1934.98024</v>
-      </c>
-      <c r="J4" t="n">
-        <v>511.01965</v>
-      </c>
-      <c r="K4" t="n">
-        <v>89094.60000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>452.00016</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43.60283</v>
-      </c>
-      <c r="N4" t="n">
-        <v>74.72261</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2909.68197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2259.63404</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>390.14623</v>
-      </c>
-      <c r="R4" t="n">
-        <v>176.36799</v>
-      </c>
-      <c r="S4" t="n">
-        <v>248.91892</v>
-      </c>
-      <c r="T4" t="n">
-        <v>399.72067</v>
-      </c>
-      <c r="U4" t="n">
-        <v>531.1044000000001</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2532.58624</v>
-      </c>
-      <c r="W4" t="n">
-        <v>651.83984</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4454.21044</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>19746.2052</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3800.484</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1833.06812</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>83.4348</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3302.40023</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>4263.81248</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2306.68765</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1684.43325</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1211.96324</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>576.81422</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2725.33549</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>550.01117</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>704.2894</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1228.03328</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1639.65909</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>7913.38828</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>286.1922</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
